--- a/December2020/PARASI.xlsx
+++ b/December2020/PARASI.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SINGH ENTERPRISES-(660865703)" sheetId="1" r:id="rId1"/>
     <sheet name="KALER ENTERPRISES-(661674410)" sheetId="3" r:id="rId2"/>
-    <sheet name="Anish Mobile" sheetId="4" r:id="rId3"/>
+    <sheet name=" ANISH MOBILE CENT-(661474493)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>SINGH ENTERPRISES-(660865703)</t>
   </si>
@@ -51,13 +51,13 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>KALER ENTERPRISES-(661674410)</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>ANish MOBILE CENTRE-(660903120)</t>
+    <t xml:space="preserve"> ANISH MOBILE CENTER-PARASI-(661474493)</t>
   </si>
 </sst>
 </file>
@@ -67,8 +67,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -87,16 +87,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,11 +123,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,105 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +257,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,163 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,41 +505,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +542,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,130 +571,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1126,7 +1126,6 @@
       <c r="B5" s="1">
         <v>5200</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>8000</v>
       </c>
@@ -1134,8 +1133,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:1">
-      <c r="A6" s="10"/>
+    <row r="6" s="7" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:1">
       <c r="A7" s="10"/>
@@ -1223,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1240,7 +1250,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1297,7 +1307,6 @@
       <c r="B5" s="1">
         <v>520</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1500</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1335,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
